--- a/biology/Botanique/Elaeodendron_kamerunense/Elaeodendron_kamerunense.xlsx
+++ b/biology/Botanique/Elaeodendron_kamerunense/Elaeodendron_kamerunense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaeodendron kamerunense (Loes.) Villiers est une espèce d'arbustes de la famille des Celastraceae[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaeodendron kamerunense (Loes.) Villiers est une espèce d'arbustes de la famille des Celastraceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre 30 mètres de hauteur et  60 cm de diamètre[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre 30 mètres de hauteur et  60 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste qu’on trouve dans les forêts de montagnes entre 1 900 et 2 600 mètres d'altitude. Il est répandu au Cameroun, au Congo, en Éthiopie[4], au Soudan, au Kenya et en Angola[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste qu’on trouve dans les forêts de montagnes entre 1 900 et 2 600 mètres d'altitude. Il est répandu au Cameroun, au Congo, en Éthiopie, au Soudan, au Kenya et en Angola
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est menacé dans quelques sites et 50 % des arbustes ont disparu entre 2000 et 2015[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est menacé dans quelques sites et 50 % des arbustes ont disparu entre 2000 et 2015.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu pour être extrêmement toxique. Manger les feuilles peut entraîner la mort du bétail et la diarrhée[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu pour être extrêmement toxique. Manger les feuilles peut entraîner la mort du bétail et la diarrhée.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est récolté pour une utilisation locale comme médicament et source de bois[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est récolté pour une utilisation locale comme médicament et source de bois.
 </t>
         </is>
       </c>
